--- a/IncaArt/Data/MateriaPrima.xlsx
+++ b/IncaArt/Data/MateriaPrima.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Lista de Materiales</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Piedra</t>
-  </si>
-  <si>
-    <t>UNDS</t>
-  </si>
-  <si>
-    <t>soles</t>
   </si>
   <si>
     <t>Madera</t>
@@ -400,7 +394,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,8 +436,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -454,16 +448,16 @@
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -474,16 +468,16 @@
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -494,8 +488,8 @@
       <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
